--- a/AAII_Financials/Quarterly/MFGP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MFGP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>MFGP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +708,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1425700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1546800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1454200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1691300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1657100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,26 +740,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>383100</v>
+      </c>
+      <c r="E9" s="3">
         <v>349000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>349700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>380200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>397100</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,26 +772,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1042600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1197800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1104500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1311100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1260000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,8 +804,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,26 +820,27 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E12" s="3">
         <v>269800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>242900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>242600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>249100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +850,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,26 +882,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>143800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1963200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1048400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>132800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>161400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -895,8 +914,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,15 +928,15 @@
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>240100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>249600</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +946,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,26 +959,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1580500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3301500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2360900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1502200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1624500</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,26 +989,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-154800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1754700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-906700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>189100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>32600</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1021,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,26 +1037,27 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-125200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-149700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-129300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-15500</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,26 +1067,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>248400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1512900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-634500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>570100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>406200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,8 +1099,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1074,15 +1113,15 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
         <v>110700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>116700</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,26 +1131,29 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-280000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1904400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1036000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>65500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-99600</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,26 +1163,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E24" s="3">
         <v>40900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-21300</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,8 +1195,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,26 +1227,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-218900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1945300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1029300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>60200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-78300</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,26 +1259,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-218900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1945200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1029400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>59900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-78300</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1291,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,26 +1323,29 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>7800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-2700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>11800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>1475400</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1295,8 +1355,11 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1387,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,26 +1419,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E32" s="3">
         <v>149700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>129300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>15500</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,26 +1451,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-218900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1937400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1032100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>71700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1397100</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1483,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,26 +1515,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-218900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1937400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1032100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>71700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1397100</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,31 +1547,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1584,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1600,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,26 +1614,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>698100</v>
+      </c>
+      <c r="E41" s="3">
         <v>737200</v>
       </c>
-      <c r="E41" s="3">
-        <v>808100</v>
-      </c>
       <c r="F41" s="3">
+        <v>737200</v>
+      </c>
+      <c r="G41" s="3">
         <v>355700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2666200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1644,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1569,15 +1658,15 @@
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>12400</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,26 +1676,29 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>684000</v>
+      </c>
+      <c r="E43" s="3">
         <v>727600</v>
       </c>
-      <c r="E43" s="3">
-        <v>789800</v>
-      </c>
       <c r="F43" s="3">
+        <v>776700</v>
+      </c>
+      <c r="G43" s="3">
         <v>1019100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>864500</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,25 +1708,28 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
-      </c>
-      <c r="F44" s="3">
-        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1645,26 +1740,29 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E45" s="3">
         <v>77000</v>
       </c>
-      <c r="E45" s="3">
-        <v>21100</v>
-      </c>
       <c r="F45" s="3">
+        <v>27900</v>
+      </c>
+      <c r="G45" s="3">
         <v>73200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>86100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,26 +1772,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1404700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1541800</v>
       </c>
-      <c r="E46" s="3">
-        <v>1619300</v>
-      </c>
       <c r="F46" s="3">
+        <v>1541800</v>
+      </c>
+      <c r="G46" s="3">
         <v>1448100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3629300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,26 +1804,29 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>44900</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>17400</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1732,26 +1836,29 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>267800</v>
+      </c>
+      <c r="E48" s="3">
         <v>300900</v>
       </c>
-      <c r="E48" s="3">
-        <v>314000</v>
-      </c>
       <c r="F48" s="3">
+        <v>300900</v>
+      </c>
+      <c r="G48" s="3">
         <v>140500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>136300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,26 +1868,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8926300</v>
+      </c>
+      <c r="E49" s="3">
         <v>9218400</v>
       </c>
-      <c r="E49" s="3">
-        <v>11185200</v>
-      </c>
       <c r="F49" s="3">
+        <v>9218400</v>
+      </c>
+      <c r="G49" s="3">
         <v>12613600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13192100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1790,8 +1900,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1932,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,26 +1964,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E52" s="3">
         <v>85700</v>
       </c>
-      <c r="E52" s="3">
-        <v>101400</v>
-      </c>
       <c r="F52" s="3">
+        <v>85700</v>
+      </c>
+      <c r="G52" s="3">
         <v>92600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>90300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +1996,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,26 +2028,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10733700</v>
+      </c>
+      <c r="E54" s="3">
         <v>11146800</v>
       </c>
-      <c r="E54" s="3">
-        <v>13219900</v>
-      </c>
       <c r="F54" s="3">
+        <v>11146800</v>
+      </c>
+      <c r="G54" s="3">
         <v>14294800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17065400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2060,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2076,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,26 +2090,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>465100</v>
+      </c>
+      <c r="E57" s="3">
         <v>71500</v>
       </c>
-      <c r="E57" s="3">
-        <v>501600</v>
-      </c>
       <c r="F57" s="3">
+        <v>503500</v>
+      </c>
+      <c r="G57" s="3">
         <v>105000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>66000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,26 +2120,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E58" s="3">
         <v>103600</v>
       </c>
-      <c r="E58" s="3">
-        <v>251600</v>
-      </c>
       <c r="F58" s="3">
+        <v>103600</v>
+      </c>
+      <c r="G58" s="3">
         <v>11800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,26 +2152,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1194500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1613200</v>
       </c>
-      <c r="E59" s="3">
-        <v>1192900</v>
-      </c>
       <c r="F59" s="3">
+        <v>1181200</v>
+      </c>
+      <c r="G59" s="3">
         <v>1685200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3850000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,26 +2184,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1760400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1788300</v>
       </c>
-      <c r="E60" s="3">
-        <v>1946100</v>
-      </c>
       <c r="F60" s="3">
+        <v>1788300</v>
+      </c>
+      <c r="G60" s="3">
         <v>1802000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3928100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,26 +2216,29 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4715700</v>
+      </c>
+      <c r="E61" s="3">
         <v>4787100</v>
       </c>
-      <c r="E61" s="3">
-        <v>4868500</v>
-      </c>
       <c r="F61" s="3">
+        <v>4787100</v>
+      </c>
+      <c r="G61" s="3">
         <v>4682400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4661600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2106,26 +2248,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1197600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1356300</v>
       </c>
-      <c r="E62" s="3">
-        <v>1401000</v>
-      </c>
       <c r="F62" s="3">
+        <v>1356300</v>
+      </c>
+      <c r="G62" s="3">
         <v>1534100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1570100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2280,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2312,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2344,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,26 +2376,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7673700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7931700</v>
       </c>
-      <c r="E66" s="3">
-        <v>8217000</v>
-      </c>
       <c r="F66" s="3">
+        <v>7931700</v>
+      </c>
+      <c r="G66" s="3">
         <v>8019800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10160800</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2408,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2424,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2454,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2486,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2518,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,26 +2550,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3252400</v>
+      </c>
+      <c r="E72" s="3">
         <v>3511100</v>
       </c>
-      <c r="E72" s="3">
-        <v>5443600</v>
-      </c>
       <c r="F72" s="3">
+        <v>3511100</v>
+      </c>
+      <c r="G72" s="3">
         <v>6475500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6818400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2582,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2614,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2646,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,26 +2678,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3060000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3215100</v>
       </c>
-      <c r="E76" s="3">
-        <v>5002900</v>
-      </c>
       <c r="F76" s="3">
+        <v>3215100</v>
+      </c>
+      <c r="G76" s="3">
         <v>6275000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6904600</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2710,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,31 +2742,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,26 +2779,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-218900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1937400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1032100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>71700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1397100</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2811,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,26 +2827,27 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>528400</v>
+      </c>
+      <c r="E83" s="3">
         <v>391500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>401500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>393900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>389100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2659,8 +2857,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2889,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2921,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2953,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2985,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,26 +3017,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E89" s="3">
         <v>289900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>388300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>196000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>465800</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3049,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,26 +3065,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-33200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2875,8 +3095,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3127,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,26 +3159,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-49500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-39700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-292500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2374600</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3191,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,26 +3207,27 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-51800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-198500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-240700</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3004,8 +3237,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3269,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3301,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,26 +3333,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-226800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-313300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>115100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2211200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-796100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,26 +3365,29 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-11300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3149,26 +3397,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-70900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>452400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2310500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2045300</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3427,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MFGP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MFGP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>MFGP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,29 +711,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1474200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1425700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1546800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1454200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1691300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1657100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -743,29 +746,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>390600</v>
+      </c>
+      <c r="E9" s="3">
         <v>383100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>349000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>349700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>380200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>397100</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -775,29 +781,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1083600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1042600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1197800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1104500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1311100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1260000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,8 +816,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -821,29 +833,30 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>262400</v>
+      </c>
+      <c r="E12" s="3">
         <v>259000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>269800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>242900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>242600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>249100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -853,8 +866,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -885,29 +901,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>111100</v>
+      </c>
+      <c r="E14" s="3">
         <v>143800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1963200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1048400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>132800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>161400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -917,8 +936,11 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,15 +953,15 @@
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <v>240100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>249600</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -949,8 +971,11 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -960,29 +985,30 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1580500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3301500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2360900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1502200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1624500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,29 +1018,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-110800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-154800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1754700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-906700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>189100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>32600</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,8 +1053,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1038,29 +1070,30 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-125200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-149700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-129300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-15500</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1070,29 +1103,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>297200</v>
+      </c>
+      <c r="E21" s="3">
         <v>248400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1512900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-634500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>570100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>406200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1102,8 +1138,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1116,15 +1155,15 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
         <v>110700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>116700</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1134,29 +1173,32 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-237800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-280000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1904400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1036000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>65500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-99600</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1166,29 +1208,32 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-61100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-21300</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1198,8 +1243,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1230,29 +1278,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-216200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-218900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1945300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1029300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>60200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-78300</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,29 +1313,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-216200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-218900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1945200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1029400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>59900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-78300</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1294,8 +1348,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1326,29 +1383,32 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>10700</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>7800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-2700</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>11800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>1475400</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1358,8 +1418,11 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1390,8 +1453,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1422,29 +1488,32 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E32" s="3">
         <v>125200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>149700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>129300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>15500</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1454,29 +1523,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-205500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-218900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1937400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1032100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>71700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1397100</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1486,8 +1558,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1518,29 +1593,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-205500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-218900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1937400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1032100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>71700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1397100</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1550,34 +1628,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1587,8 +1668,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1601,8 +1685,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1615,29 +1700,30 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>558400</v>
+      </c>
+      <c r="E41" s="3">
         <v>698100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>737200</v>
       </c>
       <c r="F41" s="3">
         <v>737200</v>
       </c>
       <c r="G41" s="3">
+        <v>737200</v>
+      </c>
+      <c r="H41" s="3">
         <v>355700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2666200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,8 +1733,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1661,15 +1750,15 @@
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>12400</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,29 +1768,32 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>905300</v>
+      </c>
+      <c r="E43" s="3">
         <v>684000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>727600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>776700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1019100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>864500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1711,28 +1803,31 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="I44" s="3">
+        <v>100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1743,29 +1838,32 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>443400</v>
+      </c>
+      <c r="E45" s="3">
         <v>22600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>77000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>73200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>86100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1775,29 +1873,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1907100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1404700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1541800</v>
       </c>
       <c r="F46" s="3">
         <v>1541800</v>
       </c>
       <c r="G46" s="3">
+        <v>1541800</v>
+      </c>
+      <c r="H46" s="3">
         <v>1448100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3629300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1807,29 +1908,32 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E47" s="3">
         <v>44900</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>17400</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1839,29 +1943,32 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>228600</v>
+      </c>
+      <c r="E48" s="3">
         <v>267800</v>
-      </c>
-      <c r="E48" s="3">
-        <v>300900</v>
       </c>
       <c r="F48" s="3">
         <v>300900</v>
       </c>
       <c r="G48" s="3">
+        <v>300900</v>
+      </c>
+      <c r="H48" s="3">
         <v>140500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>136300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1871,29 +1978,32 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8056700</v>
+      </c>
+      <c r="E49" s="3">
         <v>8926300</v>
-      </c>
-      <c r="E49" s="3">
-        <v>9218400</v>
       </c>
       <c r="F49" s="3">
         <v>9218400</v>
       </c>
       <c r="G49" s="3">
+        <v>9218400</v>
+      </c>
+      <c r="H49" s="3">
         <v>12613600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13192100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1903,8 +2013,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1935,8 +2048,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1967,29 +2083,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E52" s="3">
         <v>90000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>85700</v>
       </c>
       <c r="F52" s="3">
         <v>85700</v>
       </c>
       <c r="G52" s="3">
+        <v>85700</v>
+      </c>
+      <c r="H52" s="3">
         <v>92600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>90300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,8 +2118,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2031,29 +2153,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10346600</v>
+      </c>
+      <c r="E54" s="3">
         <v>10733700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>11146800</v>
       </c>
       <c r="F54" s="3">
         <v>11146800</v>
       </c>
       <c r="G54" s="3">
+        <v>11146800</v>
+      </c>
+      <c r="H54" s="3">
         <v>14294800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17065400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2063,8 +2188,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2077,8 +2205,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2091,29 +2220,30 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>80900</v>
+      </c>
+      <c r="E57" s="3">
         <v>465100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>71500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>503500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>105000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>66000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,29 +2253,32 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>99200</v>
+      </c>
+      <c r="E58" s="3">
         <v>100800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>103600</v>
       </c>
       <c r="F58" s="3">
         <v>103600</v>
       </c>
       <c r="G58" s="3">
+        <v>103600</v>
+      </c>
+      <c r="H58" s="3">
         <v>11800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2155,29 +2288,32 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1680800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1194500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1613200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1181200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1685200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3850000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,29 +2323,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1860900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1760400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1788300</v>
       </c>
       <c r="F60" s="3">
         <v>1788300</v>
       </c>
       <c r="G60" s="3">
+        <v>1788300</v>
+      </c>
+      <c r="H60" s="3">
         <v>1802000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3928100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2219,29 +2358,32 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4643700</v>
+      </c>
+      <c r="E61" s="3">
         <v>4715700</v>
-      </c>
-      <c r="E61" s="3">
-        <v>4787100</v>
       </c>
       <c r="F61" s="3">
         <v>4787100</v>
       </c>
       <c r="G61" s="3">
+        <v>4787100</v>
+      </c>
+      <c r="H61" s="3">
         <v>4682400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4661600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2251,29 +2393,32 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1021000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1197600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1356300</v>
       </c>
       <c r="F62" s="3">
         <v>1356300</v>
       </c>
       <c r="G62" s="3">
+        <v>1356300</v>
+      </c>
+      <c r="H62" s="3">
         <v>1534100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1570100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2283,8 +2428,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2315,8 +2463,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2347,8 +2498,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2379,29 +2533,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7525600</v>
+      </c>
+      <c r="E66" s="3">
         <v>7673700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>7931700</v>
       </c>
       <c r="F66" s="3">
         <v>7931700</v>
       </c>
       <c r="G66" s="3">
+        <v>7931700</v>
+      </c>
+      <c r="H66" s="3">
         <v>8019800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10160800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2568,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2425,8 +2585,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2457,8 +2618,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2489,8 +2653,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2521,8 +2688,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2553,29 +2723,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3023700</v>
+      </c>
+      <c r="E72" s="3">
         <v>3252400</v>
-      </c>
-      <c r="E72" s="3">
-        <v>3511100</v>
       </c>
       <c r="F72" s="3">
         <v>3511100</v>
       </c>
       <c r="G72" s="3">
+        <v>3511100</v>
+      </c>
+      <c r="H72" s="3">
         <v>6475500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6818400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2758,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2617,8 +2793,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2649,8 +2828,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2681,29 +2863,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2821000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3060000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>3215100</v>
       </c>
       <c r="F76" s="3">
         <v>3215100</v>
       </c>
       <c r="G76" s="3">
+        <v>3215100</v>
+      </c>
+      <c r="H76" s="3">
         <v>6275000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6904600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2713,8 +2898,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2745,34 +2933,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2782,29 +2973,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-205500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-218900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1937400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1032100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>71700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1397100</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2814,8 +3008,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2828,29 +3025,30 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E83" s="3">
         <v>528400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>391500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>401500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>393900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>389100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,8 +3058,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2892,8 +3093,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2924,8 +3128,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2956,8 +3163,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2988,8 +3198,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3020,29 +3233,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E89" s="3">
         <v>227900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>289900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>388300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>196000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>465800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3052,8 +3268,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3066,29 +3285,30 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3318,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3130,8 +3353,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3162,29 +3388,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-45400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-49500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-39700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-292500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2374600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3194,8 +3423,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3208,29 +3440,30 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-51800</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-198500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-240700</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -3240,8 +3473,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3272,8 +3508,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3304,8 +3543,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3336,29 +3578,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-226800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-313300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>115100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2211200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-796100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3368,29 +3613,32 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E101" s="3">
         <v>5200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3400,29 +3648,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-139700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-39100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-70900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>452400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2310500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2045300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3430,6 +3681,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MFGP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MFGP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>MFGP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,32 +715,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1269600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1474200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1425700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1546800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1454200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1691300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1657100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -749,32 +753,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>363100</v>
+      </c>
+      <c r="E9" s="3">
         <v>390600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>383100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>349000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>349700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>380200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>397100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -784,32 +791,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>906500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1083600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1042600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1197800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1104500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1311100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1260000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -819,8 +829,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -834,32 +847,33 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>230600</v>
+      </c>
+      <c r="E12" s="3">
         <v>262400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>259000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>269800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>242900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>242600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>249100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -869,8 +883,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -904,32 +921,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E14" s="3">
         <v>111100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>143800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1963200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1048400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>132800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>161400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +959,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,15 +979,15 @@
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>240100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>249600</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -974,8 +997,11 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -986,32 +1012,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1234300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1585000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1580500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3301500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2360900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1502200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1624500</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1021,32 +1048,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-110800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-154800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1754700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-906700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>189100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>32600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,8 +1086,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1071,32 +1104,33 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-127000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-125200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-149700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-129300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-15500</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1106,32 +1140,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>412000</v>
+      </c>
+      <c r="E21" s="3">
         <v>297200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>248400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1512900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-634500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>570100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>406200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1141,8 +1178,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1158,15 +1198,15 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>110700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>116700</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1176,32 +1216,35 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-237800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-280000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1904400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1036000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>65500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-99600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1211,32 +1254,35 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-21600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-61100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>40900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-21300</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1246,8 +1292,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1281,32 +1330,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-216200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-218900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1945300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1029300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>60200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-78300</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1316,32 +1368,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-216200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-218900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1945200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1029400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>59900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-78300</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,8 +1406,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1386,32 +1444,35 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E29" s="3">
         <v>10700</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>7800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-2700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>11800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>1475400</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1421,8 +1482,11 @@
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1456,8 +1520,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1491,32 +1558,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E32" s="3">
         <v>127000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>125200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>149700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>129300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>15500</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1526,32 +1596,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-205500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-218900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1937400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1032100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>71700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1397100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1634,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1596,32 +1672,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-205500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-218900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1937400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1032100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>71700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1397100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1631,37 +1710,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1671,8 +1753,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1686,8 +1771,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1701,32 +1787,33 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>578700</v>
+      </c>
+      <c r="E41" s="3">
         <v>558400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>698100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>737200</v>
       </c>
       <c r="G41" s="3">
         <v>737200</v>
       </c>
       <c r="H41" s="3">
+        <v>737200</v>
+      </c>
+      <c r="I41" s="3">
         <v>355700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2666200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1736,8 +1823,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1753,15 +1843,15 @@
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>12400</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1771,32 +1861,35 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>680400</v>
+      </c>
+      <c r="E43" s="3">
         <v>905300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>684000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>727600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>776700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1019100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>864500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1806,8 +1899,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1817,20 +1913,20 @@
       <c r="E44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>100</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1841,32 +1937,35 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E45" s="3">
         <v>443400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>77000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>73200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>86100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1876,32 +1975,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1290700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1907100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1404700</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1541800</v>
       </c>
       <c r="G46" s="3">
         <v>1541800</v>
       </c>
       <c r="H46" s="3">
+        <v>1541800</v>
+      </c>
+      <c r="I46" s="3">
         <v>1448100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3629300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1911,32 +2013,35 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>96700</v>
+      </c>
+      <c r="E47" s="3">
         <v>48000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>44900</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>17400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,32 +2051,35 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>194600</v>
+      </c>
+      <c r="E48" s="3">
         <v>228600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>267800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>300900</v>
       </c>
       <c r="G48" s="3">
         <v>300900</v>
       </c>
       <c r="H48" s="3">
+        <v>300900</v>
+      </c>
+      <c r="I48" s="3">
         <v>140500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>136300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,32 +2089,35 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7515500</v>
+      </c>
+      <c r="E49" s="3">
         <v>8056700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8926300</v>
-      </c>
-      <c r="F49" s="3">
-        <v>9218400</v>
       </c>
       <c r="G49" s="3">
         <v>9218400</v>
       </c>
       <c r="H49" s="3">
+        <v>9218400</v>
+      </c>
+      <c r="I49" s="3">
         <v>12613600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13192100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2016,8 +2127,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2051,8 +2165,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2086,32 +2203,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E52" s="3">
         <v>106200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>90000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>85700</v>
       </c>
       <c r="G52" s="3">
         <v>85700</v>
       </c>
       <c r="H52" s="3">
+        <v>85700</v>
+      </c>
+      <c r="I52" s="3">
         <v>92600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>90300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2121,8 +2241,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2156,32 +2279,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9180700</v>
+      </c>
+      <c r="E54" s="3">
         <v>10346600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10733700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>11146800</v>
       </c>
       <c r="G54" s="3">
         <v>11146800</v>
       </c>
       <c r="H54" s="3">
+        <v>11146800</v>
+      </c>
+      <c r="I54" s="3">
         <v>14294800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17065400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,8 +2317,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2206,8 +2335,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2221,32 +2351,33 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>398400</v>
+      </c>
+      <c r="E57" s="3">
         <v>80900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>465100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>71500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>503500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>105000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>66000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,32 +2387,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E58" s="3">
         <v>99200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>103600</v>
       </c>
       <c r="G58" s="3">
         <v>103600</v>
       </c>
       <c r="H58" s="3">
+        <v>103600</v>
+      </c>
+      <c r="I58" s="3">
         <v>11800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,32 +2425,35 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1031400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1680800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1194500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1613200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1181200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1685200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3850000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,32 +2463,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1517000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1860900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1760400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1788300</v>
       </c>
       <c r="G60" s="3">
         <v>1788300</v>
       </c>
       <c r="H60" s="3">
+        <v>1788300</v>
+      </c>
+      <c r="I60" s="3">
         <v>1802000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3928100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,32 +2501,35 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4159200</v>
+      </c>
+      <c r="E61" s="3">
         <v>4643700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4715700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4787100</v>
       </c>
       <c r="G61" s="3">
         <v>4787100</v>
       </c>
       <c r="H61" s="3">
+        <v>4787100</v>
+      </c>
+      <c r="I61" s="3">
         <v>4682400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4661600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2396,32 +2539,35 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>852200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1021000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1197600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1356300</v>
       </c>
       <c r="G62" s="3">
         <v>1356300</v>
       </c>
       <c r="H62" s="3">
+        <v>1356300</v>
+      </c>
+      <c r="I62" s="3">
         <v>1534100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1570100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,8 +2577,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2466,8 +2615,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2501,8 +2653,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2536,32 +2691,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6528400</v>
+      </c>
+      <c r="E66" s="3">
         <v>7525600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7673700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>7931700</v>
       </c>
       <c r="G66" s="3">
         <v>7931700</v>
       </c>
       <c r="H66" s="3">
+        <v>7931700</v>
+      </c>
+      <c r="I66" s="3">
         <v>8019800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10160800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2571,8 +2729,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2586,8 +2747,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2621,8 +2783,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2656,8 +2821,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2691,8 +2859,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2726,32 +2897,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2931300</v>
+      </c>
+      <c r="E72" s="3">
         <v>3023700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3252400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>3511100</v>
       </c>
       <c r="G72" s="3">
         <v>3511100</v>
       </c>
       <c r="H72" s="3">
+        <v>3511100</v>
+      </c>
+      <c r="I72" s="3">
         <v>6475500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6818400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,8 +2935,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2796,8 +2973,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2831,8 +3011,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2866,32 +3049,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2652300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2821000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3060000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>3215100</v>
       </c>
       <c r="G76" s="3">
         <v>3215100</v>
       </c>
       <c r="H76" s="3">
+        <v>3215100</v>
+      </c>
+      <c r="I76" s="3">
         <v>6275000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6904600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2901,8 +3087,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2936,37 +3125,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2976,32 +3168,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-205500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-218900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1937400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1032100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>71700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1397100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3011,8 +3206,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3026,32 +3224,33 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>454900</v>
+      </c>
+      <c r="E83" s="3">
         <v>535000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>528400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>391500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>401500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>393900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>389100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3061,8 +3260,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3096,8 +3298,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3131,8 +3336,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3166,8 +3374,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3201,8 +3412,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3236,32 +3450,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>227900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>289900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>388300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>196000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>465800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3271,8 +3488,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3286,32 +3506,33 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3321,8 +3542,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3356,8 +3580,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3391,32 +3618,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>283600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-45400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-49500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-39700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-292500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2374600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3426,8 +3656,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3441,32 +3674,33 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-29300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-51800</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-198500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-240700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -3476,8 +3710,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3511,8 +3748,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3546,8 +3786,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3581,32 +3824,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-532000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-74700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-226800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-313300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>115100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2211200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-796100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3616,32 +3862,35 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,32 +3900,35 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-139700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-39100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-70900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>452400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2310500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2045300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3684,6 +3936,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
